--- a/Code/Results/Cases/Case_9_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.34591021254637</v>
+        <v>13.63552528139184</v>
       </c>
       <c r="C2">
-        <v>8.238489467771243</v>
+        <v>8.927616125724018</v>
       </c>
       <c r="D2">
-        <v>6.494189996022594</v>
+        <v>6.836974179498537</v>
       </c>
       <c r="E2">
-        <v>10.9433679621184</v>
+        <v>11.14748583874224</v>
       </c>
       <c r="F2">
-        <v>29.49012714450857</v>
+        <v>28.16641632771422</v>
       </c>
       <c r="G2">
-        <v>36.27783385766886</v>
+        <v>33.66515527802213</v>
       </c>
       <c r="H2">
-        <v>2.354540875984455</v>
+        <v>2.266639288001469</v>
       </c>
       <c r="I2">
-        <v>3.390526851890979</v>
+        <v>3.204500328952269</v>
       </c>
       <c r="J2">
-        <v>12.15886789619523</v>
+        <v>11.82899751466377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.97736440522259</v>
+        <v>14.34373668555518</v>
       </c>
       <c r="M2">
-        <v>12.33021333290191</v>
+        <v>11.90773027062301</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.987634642394585</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.27853122019593</v>
       </c>
       <c r="P2">
-        <v>13.89109316507691</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.53005218470225</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.46355192167179</v>
+        <v>12.81293086556706</v>
       </c>
       <c r="C3">
-        <v>7.711234598437497</v>
+        <v>8.283070824807206</v>
       </c>
       <c r="D3">
-        <v>6.141240576014593</v>
+        <v>6.460046664359323</v>
       </c>
       <c r="E3">
-        <v>10.3708665826709</v>
+        <v>10.5744033877283</v>
       </c>
       <c r="F3">
-        <v>28.73607660803839</v>
+        <v>27.53013910166401</v>
       </c>
       <c r="G3">
-        <v>35.32010122777706</v>
+        <v>32.96298425853237</v>
       </c>
       <c r="H3">
-        <v>2.604138812714881</v>
+        <v>2.501074880018053</v>
       </c>
       <c r="I3">
-        <v>3.576055768446416</v>
+        <v>3.3647864393211</v>
       </c>
       <c r="J3">
-        <v>12.05786544055668</v>
+        <v>11.72410559277855</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.744891527114791</v>
+        <v>14.39876282925395</v>
       </c>
       <c r="M3">
-        <v>11.52567801230597</v>
+        <v>11.76803384403151</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.766084000820868</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.49177109527791</v>
       </c>
       <c r="P3">
-        <v>14.02708843789732</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.67316180704679</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.89062797578518</v>
+        <v>12.2772609477662</v>
       </c>
       <c r="C4">
-        <v>7.373544629554482</v>
+        <v>7.868495391429815</v>
       </c>
       <c r="D4">
-        <v>5.915591680100938</v>
+        <v>6.219321314709092</v>
       </c>
       <c r="E4">
-        <v>10.00352243887469</v>
+        <v>10.20708767112986</v>
       </c>
       <c r="F4">
-        <v>28.26861760109438</v>
+        <v>27.13541326834522</v>
       </c>
       <c r="G4">
-        <v>34.72673237800182</v>
+        <v>32.53211053426259</v>
       </c>
       <c r="H4">
-        <v>2.76299984496196</v>
+        <v>2.650403060875596</v>
       </c>
       <c r="I4">
-        <v>3.6946438273834</v>
+        <v>3.467613695679765</v>
       </c>
       <c r="J4">
-        <v>11.99774679649293</v>
+        <v>11.65920515079405</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.597303059395024</v>
+        <v>14.42987407045812</v>
       </c>
       <c r="M4">
-        <v>11.04273774603654</v>
+        <v>11.69895450204456</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.625538517462298</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.97991582198275</v>
       </c>
       <c r="P4">
-        <v>14.11144663764272</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.76195635518853</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.64241036504439</v>
+        <v>12.04458904866034</v>
       </c>
       <c r="C5">
-        <v>7.242020224358094</v>
+        <v>7.704553301215293</v>
       </c>
       <c r="D5">
-        <v>5.824411874663071</v>
+        <v>6.121784326679482</v>
       </c>
       <c r="E5">
-        <v>9.851039881302944</v>
+        <v>10.05468084472096</v>
       </c>
       <c r="F5">
-        <v>28.06610632384727</v>
+        <v>26.96318253059309</v>
       </c>
       <c r="G5">
-        <v>34.46426577215193</v>
+        <v>32.33830892866526</v>
       </c>
       <c r="H5">
-        <v>2.829490671463707</v>
+        <v>2.712921143553182</v>
       </c>
       <c r="I5">
-        <v>3.746845123681206</v>
+        <v>3.513757826859051</v>
       </c>
       <c r="J5">
-        <v>11.97011195375706</v>
+        <v>11.62917513739474</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.535557468143145</v>
+        <v>14.4348649829596</v>
       </c>
       <c r="M5">
-        <v>10.84859105991437</v>
+        <v>11.67009349079589</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.566774856111428</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.76303003032583</v>
       </c>
       <c r="P5">
-        <v>14.14419733956833</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.79690554330158</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.59216774086594</v>
+        <v>11.99725556030433</v>
       </c>
       <c r="C6">
-        <v>7.231704697188881</v>
+        <v>7.688961038383901</v>
       </c>
       <c r="D6">
-        <v>5.812759590594409</v>
+        <v>6.108896936908188</v>
       </c>
       <c r="E6">
-        <v>9.826844671857799</v>
+        <v>10.03044597555879</v>
       </c>
       <c r="F6">
-        <v>28.01885339637314</v>
+        <v>26.92169037169111</v>
       </c>
       <c r="G6">
-        <v>34.39666846270798</v>
+        <v>32.28364702094874</v>
       </c>
       <c r="H6">
-        <v>2.841011437518246</v>
+        <v>2.723742949758016</v>
       </c>
       <c r="I6">
-        <v>3.759020082810726</v>
+        <v>3.52549816214986</v>
       </c>
       <c r="J6">
-        <v>11.96113370553995</v>
+        <v>11.61994306208479</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.524717207537998</v>
+        <v>14.427096578702</v>
       </c>
       <c r="M6">
-        <v>10.81476334818295</v>
+        <v>11.65946082306117</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.55646864006239</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.72529125006353</v>
       </c>
       <c r="P6">
-        <v>14.14739114075008</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.80092179955393</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.86444525237101</v>
+        <v>12.24645966800636</v>
       </c>
       <c r="C7">
-        <v>7.403079904659775</v>
+        <v>7.888957988609419</v>
       </c>
       <c r="D7">
-        <v>5.924052920422638</v>
+        <v>6.232916786601341</v>
       </c>
       <c r="E7">
-        <v>10.00512050601589</v>
+        <v>10.21062180940479</v>
       </c>
       <c r="F7">
-        <v>28.22914928807859</v>
+        <v>27.07694145744868</v>
       </c>
       <c r="G7">
-        <v>34.65836122112494</v>
+        <v>32.53652968763014</v>
       </c>
       <c r="H7">
-        <v>2.764949475075531</v>
+        <v>2.652884698192153</v>
       </c>
       <c r="I7">
-        <v>3.704454330313063</v>
+        <v>3.479534927201739</v>
       </c>
       <c r="J7">
-        <v>11.98535503728444</v>
+        <v>11.60128631237093</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.595083137893316</v>
+        <v>14.39725561992478</v>
       </c>
       <c r="M7">
-        <v>11.03671811866401</v>
+        <v>11.67418595458773</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.622603624013459</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.96695647089819</v>
       </c>
       <c r="P7">
-        <v>14.10577142550144</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.75525640097869</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02010609270277</v>
+        <v>13.31377157737149</v>
       </c>
       <c r="C8">
-        <v>8.097852675079544</v>
+        <v>8.720149127186328</v>
       </c>
       <c r="D8">
-        <v>6.386345392875483</v>
+        <v>6.738088908235254</v>
       </c>
       <c r="E8">
-        <v>10.75382459334851</v>
+        <v>10.96408583773106</v>
       </c>
       <c r="F8">
-        <v>29.18416580879365</v>
+        <v>27.83473775017728</v>
       </c>
       <c r="G8">
-        <v>35.8659294949063</v>
+        <v>33.5661064572225</v>
       </c>
       <c r="H8">
-        <v>2.440790602305907</v>
+        <v>2.349689703577453</v>
       </c>
       <c r="I8">
-        <v>3.465209586641929</v>
+        <v>3.274583882294333</v>
       </c>
       <c r="J8">
-        <v>12.10799118211805</v>
+        <v>11.62836960015892</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.896489695128953</v>
+        <v>14.30481753265062</v>
       </c>
       <c r="M8">
-        <v>12.05442290005471</v>
+        <v>11.80633757370064</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.907929646618241</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.98865737682987</v>
       </c>
       <c r="P8">
-        <v>13.92995395403174</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.56591965998766</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07330153044641</v>
+        <v>15.22360845563945</v>
       </c>
       <c r="C9">
-        <v>9.299861687196172</v>
+        <v>10.18448313826007</v>
       </c>
       <c r="D9">
-        <v>7.204120358215207</v>
+        <v>7.61615905823036</v>
       </c>
       <c r="E9">
-        <v>12.08769126507561</v>
+        <v>12.30218463400426</v>
       </c>
       <c r="F9">
-        <v>31.07592784089104</v>
+        <v>29.42105664050497</v>
       </c>
       <c r="G9">
-        <v>38.29198712138273</v>
+        <v>35.4346642086938</v>
       </c>
       <c r="H9">
-        <v>1.846801915688985</v>
+        <v>1.792881355128524</v>
       </c>
       <c r="I9">
-        <v>3.017482257583753</v>
+        <v>2.887281049723695</v>
       </c>
       <c r="J9">
-        <v>12.38462127994619</v>
+        <v>11.86344842502413</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.449847983404188</v>
+        <v>14.17538753425614</v>
       </c>
       <c r="M9">
-        <v>13.90450496711987</v>
+        <v>12.25401249942476</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.435363896920134</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.79442297619754</v>
       </c>
       <c r="P9">
-        <v>13.60196612735354</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.21776966736183</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37779272366381</v>
+        <v>16.4683703790437</v>
       </c>
       <c r="C10">
-        <v>10.08866598295056</v>
+        <v>11.09137007603307</v>
       </c>
       <c r="D10">
-        <v>7.676853726533901</v>
+        <v>8.152606906437466</v>
       </c>
       <c r="E10">
-        <v>12.75897013473372</v>
+        <v>12.98586068955335</v>
       </c>
       <c r="F10">
-        <v>32.19518252882946</v>
+        <v>30.23188771632404</v>
       </c>
       <c r="G10">
-        <v>39.73236853864282</v>
+        <v>36.89207695359375</v>
       </c>
       <c r="H10">
-        <v>1.671430800218523</v>
+        <v>1.695724714266694</v>
       </c>
       <c r="I10">
-        <v>2.722723432911184</v>
+        <v>2.63913764278923</v>
       </c>
       <c r="J10">
-        <v>12.53909019329217</v>
+        <v>11.73557171874627</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.715692357844468</v>
+        <v>13.95901412930317</v>
       </c>
       <c r="M10">
-        <v>15.08272808845903</v>
+        <v>12.53640155559953</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.680980342553481</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.91442706009528</v>
       </c>
       <c r="P10">
-        <v>13.34157388929858</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.94077593357521</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.56299774167679</v>
+        <v>16.65201040621747</v>
       </c>
       <c r="C11">
-        <v>10.13093387582076</v>
+        <v>11.01111154657809</v>
       </c>
       <c r="D11">
-        <v>7.16379454210916</v>
+        <v>7.679308293071387</v>
       </c>
       <c r="E11">
-        <v>11.11461001658816</v>
+        <v>11.34972312019974</v>
       </c>
       <c r="F11">
-        <v>30.7708434026864</v>
+        <v>28.64343691758558</v>
       </c>
       <c r="G11">
-        <v>37.9741558184835</v>
+        <v>36.01106863505525</v>
       </c>
       <c r="H11">
-        <v>2.663548614762753</v>
+        <v>2.671872596314218</v>
       </c>
       <c r="I11">
-        <v>2.667464074953531</v>
+        <v>2.604199581807637</v>
       </c>
       <c r="J11">
-        <v>12.14110432149287</v>
+        <v>10.89529307331986</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.897421286814796</v>
+        <v>13.30058433131841</v>
       </c>
       <c r="M11">
-        <v>15.24334261866378</v>
+        <v>12.04642551637084</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.858080453700651</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.0129372516207</v>
       </c>
       <c r="P11">
-        <v>13.06105127637208</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.71475092100322</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.48390743771798</v>
+        <v>16.59443478644675</v>
       </c>
       <c r="C12">
-        <v>9.968301358736568</v>
+        <v>10.74411013549492</v>
       </c>
       <c r="D12">
-        <v>6.616241798997742</v>
+        <v>7.135416869077595</v>
       </c>
       <c r="E12">
-        <v>9.617966373963071</v>
+        <v>9.847871276329581</v>
       </c>
       <c r="F12">
-        <v>29.3667254380681</v>
+        <v>27.23540022458344</v>
       </c>
       <c r="G12">
-        <v>36.25104411767337</v>
+        <v>34.79256516213573</v>
       </c>
       <c r="H12">
-        <v>4.054207571648598</v>
+        <v>4.049814070232331</v>
       </c>
       <c r="I12">
-        <v>2.660613823507888</v>
+        <v>2.600333391473643</v>
       </c>
       <c r="J12">
-        <v>11.78672375879453</v>
+        <v>10.40523503012824</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.231765820071546</v>
+        <v>12.86039996676129</v>
       </c>
       <c r="M12">
-        <v>15.14261252664698</v>
+        <v>11.62489163668817</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.196625546495622</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.88931770105104</v>
       </c>
       <c r="P12">
-        <v>12.90729299536495</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.61716717292308</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.15310568051429</v>
+        <v>16.33207690349381</v>
       </c>
       <c r="C13">
-        <v>9.66975993817524</v>
+        <v>10.36182304256011</v>
       </c>
       <c r="D13">
-        <v>6.006015906072802</v>
+        <v>6.489909877740612</v>
       </c>
       <c r="E13">
-        <v>8.139800276712146</v>
+        <v>8.349936083103392</v>
       </c>
       <c r="F13">
-        <v>27.82243705957869</v>
+        <v>25.85770846443231</v>
       </c>
       <c r="G13">
-        <v>34.33218631047691</v>
+        <v>32.97500166895889</v>
       </c>
       <c r="H13">
-        <v>5.515427322852016</v>
+        <v>5.51025396726043</v>
       </c>
       <c r="I13">
-        <v>2.706303549545994</v>
+        <v>2.637606536929276</v>
       </c>
       <c r="J13">
-        <v>11.42522437875466</v>
+        <v>10.19126208910481</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.660945955948256</v>
+        <v>12.53503299885662</v>
       </c>
       <c r="M13">
-        <v>14.82765357555992</v>
+        <v>11.2215924976984</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.638810352033586</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.59250748083135</v>
       </c>
       <c r="P13">
-        <v>12.83230001322244</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.59904517304192</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.79878820305845</v>
+        <v>16.04672060420523</v>
       </c>
       <c r="C14">
-        <v>9.402719172540044</v>
+        <v>10.04306560988076</v>
       </c>
       <c r="D14">
-        <v>5.546265908861268</v>
+        <v>5.988182472019038</v>
       </c>
       <c r="E14">
-        <v>7.139546798922789</v>
+        <v>7.329462956212583</v>
       </c>
       <c r="F14">
-        <v>26.66403601639114</v>
+        <v>24.88996864790421</v>
       </c>
       <c r="G14">
-        <v>32.87520815946338</v>
+        <v>31.42063558994469</v>
       </c>
       <c r="H14">
-        <v>6.542519441087275</v>
+        <v>6.535952162628971</v>
       </c>
       <c r="I14">
-        <v>2.764962736648561</v>
+        <v>2.685902288790686</v>
       </c>
       <c r="J14">
-        <v>11.16695192224837</v>
+        <v>10.14496075975389</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.337494296961768</v>
+        <v>12.34881667135729</v>
       </c>
       <c r="M14">
-        <v>14.50529169654854</v>
+        <v>10.94405880855283</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.328166982847282</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.30113431781365</v>
       </c>
       <c r="P14">
-        <v>12.8168379104961</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.61945551218682</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.65331489191203</v>
+        <v>15.9247159389721</v>
       </c>
       <c r="C15">
-        <v>9.31663802872206</v>
+        <v>9.947232643262788</v>
       </c>
       <c r="D15">
-        <v>5.422768842113851</v>
+        <v>5.847206548022204</v>
       </c>
       <c r="E15">
-        <v>6.897146877467389</v>
+        <v>7.080678417926</v>
       </c>
       <c r="F15">
-        <v>26.34185421626196</v>
+        <v>24.64589179493906</v>
       </c>
       <c r="G15">
-        <v>32.45926088653577</v>
+        <v>30.91242891099813</v>
       </c>
       <c r="H15">
-        <v>6.781646660733673</v>
+        <v>6.774277277928455</v>
       </c>
       <c r="I15">
-        <v>2.795557694999306</v>
+        <v>2.712356716063604</v>
       </c>
       <c r="J15">
-        <v>11.09937027694107</v>
+        <v>10.17502207348331</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.268556198479335</v>
+        <v>12.31655186864541</v>
       </c>
       <c r="M15">
-        <v>14.3784297748118</v>
+        <v>10.87369300117898</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.263641451892105</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.18981726519202</v>
       </c>
       <c r="P15">
-        <v>12.82623404310719</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.63660945818658</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.14814565476335</v>
+        <v>15.47730447478541</v>
       </c>
       <c r="C16">
-        <v>9.045103387151091</v>
+        <v>9.696371329795898</v>
       </c>
       <c r="D16">
-        <v>5.31264040701998</v>
+        <v>5.677816835362359</v>
       </c>
       <c r="E16">
-        <v>6.82504900220515</v>
+        <v>7.000919539722951</v>
       </c>
       <c r="F16">
-        <v>26.11007212805408</v>
+        <v>24.67355466743688</v>
       </c>
       <c r="G16">
-        <v>32.12778990712993</v>
+        <v>30.02548618031502</v>
       </c>
       <c r="H16">
-        <v>6.587489889271176</v>
+        <v>6.574844830454264</v>
       </c>
       <c r="I16">
-        <v>2.916748662606514</v>
+        <v>2.811964203966664</v>
       </c>
       <c r="J16">
-        <v>11.09646103905627</v>
+        <v>10.56359038936579</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.250466341979206</v>
+        <v>12.48714312306371</v>
       </c>
       <c r="M16">
-        <v>13.93407530946062</v>
+        <v>10.89986993018479</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.256521170683046</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.81241193492429</v>
       </c>
       <c r="P16">
-        <v>12.94624270283325</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.74769608644273</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.94772005908407</v>
+        <v>15.27827442011694</v>
       </c>
       <c r="C17">
-        <v>8.983273629890503</v>
+        <v>9.669675267857144</v>
       </c>
       <c r="D17">
-        <v>5.482525439185405</v>
+        <v>5.830868280718455</v>
       </c>
       <c r="E17">
-        <v>7.300254505068144</v>
+        <v>7.479970224481532</v>
       </c>
       <c r="F17">
-        <v>26.55842561726094</v>
+        <v>25.19434916889352</v>
       </c>
       <c r="G17">
-        <v>32.66415537735031</v>
+        <v>30.27525781194732</v>
       </c>
       <c r="H17">
-        <v>5.864081383137922</v>
+        <v>5.846945184747374</v>
       </c>
       <c r="I17">
-        <v>2.97967297904593</v>
+        <v>2.864624241823768</v>
       </c>
       <c r="J17">
-        <v>11.23170469351093</v>
+        <v>10.85221259946717</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.393626536916388</v>
+        <v>12.7168402035646</v>
       </c>
       <c r="M17">
-        <v>13.76600967825815</v>
+        <v>11.05423085380231</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.401239311740294</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.67138427139075</v>
       </c>
       <c r="P17">
-        <v>13.04560586146541</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.82617191271254</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.00947099336921</v>
+        <v>15.30279796846896</v>
       </c>
       <c r="C18">
-        <v>9.079107440061787</v>
+        <v>9.831706732274688</v>
       </c>
       <c r="D18">
-        <v>5.909843132829367</v>
+        <v>6.266396980769175</v>
       </c>
       <c r="E18">
-        <v>8.382757017382982</v>
+        <v>8.570689324875397</v>
       </c>
       <c r="F18">
-        <v>27.67064321976749</v>
+        <v>26.26565991695057</v>
       </c>
       <c r="G18">
-        <v>34.05302745964698</v>
+        <v>31.42881955887075</v>
       </c>
       <c r="H18">
-        <v>4.626059425598525</v>
+        <v>4.603744836972839</v>
       </c>
       <c r="I18">
-        <v>2.986897684275599</v>
+        <v>2.867638386147245</v>
       </c>
       <c r="J18">
-        <v>11.51035057436742</v>
+        <v>11.16936931868763</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.775547948275637</v>
+        <v>13.05973357238647</v>
       </c>
       <c r="M18">
-        <v>13.82686446751888</v>
+        <v>11.3644662469095</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.777904635238661</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.7381191873834</v>
       </c>
       <c r="P18">
-        <v>13.15145626215537</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.89633494381548</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.24116733372272</v>
+        <v>15.47733458129257</v>
       </c>
       <c r="C19">
-        <v>9.341149245510756</v>
+        <v>10.18470293455378</v>
       </c>
       <c r="D19">
-        <v>6.523183237611264</v>
+        <v>6.902591793238202</v>
       </c>
       <c r="E19">
-        <v>9.941371248329421</v>
+        <v>10.13878906391425</v>
       </c>
       <c r="F19">
-        <v>29.17580941271545</v>
+        <v>27.66218943892434</v>
       </c>
       <c r="G19">
-        <v>35.91413910016314</v>
+        <v>33.06365879551283</v>
       </c>
       <c r="H19">
-        <v>3.156664525862803</v>
+        <v>3.127083988010994</v>
       </c>
       <c r="I19">
-        <v>2.966068041775143</v>
+        <v>2.851561702835741</v>
       </c>
       <c r="J19">
-        <v>11.86670272271355</v>
+        <v>11.50189323633949</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.414224099259132</v>
+        <v>13.44992570350938</v>
       </c>
       <c r="M19">
-        <v>14.06210345792672</v>
+        <v>11.75434960303094</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.407270218564188</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.96668279298122</v>
       </c>
       <c r="P19">
-        <v>13.2634000842792</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.96267091487172</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.98772234169521</v>
+        <v>16.11397044679026</v>
       </c>
       <c r="C20">
-        <v>9.959260336162879</v>
+        <v>10.95622307705023</v>
       </c>
       <c r="D20">
-        <v>7.575360637168796</v>
+        <v>8.017229616140044</v>
       </c>
       <c r="E20">
-        <v>12.58513553404147</v>
+        <v>12.80225545208943</v>
       </c>
       <c r="F20">
-        <v>31.7926888011634</v>
+        <v>29.98408576575705</v>
       </c>
       <c r="G20">
-        <v>39.16684129151133</v>
+        <v>36.10807319801309</v>
       </c>
       <c r="H20">
-        <v>1.573624120614928</v>
+        <v>1.599495992383427</v>
       </c>
       <c r="I20">
-        <v>2.83116640580536</v>
+        <v>2.739062472007415</v>
       </c>
       <c r="J20">
-        <v>12.46032850887762</v>
+        <v>11.88750850396433</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.638343312296539</v>
+        <v>13.98495313338076</v>
       </c>
       <c r="M20">
-        <v>14.77154179446276</v>
+        <v>12.42562745065316</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.611612473286002</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.63711966104246</v>
       </c>
       <c r="P20">
-        <v>13.39167389349786</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.00738811190491</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.02145879604859</v>
+        <v>17.00300434680476</v>
       </c>
       <c r="C21">
-        <v>10.58537979222872</v>
+        <v>11.56058570702412</v>
       </c>
       <c r="D21">
-        <v>8.049414133742413</v>
+        <v>8.628075501970542</v>
       </c>
       <c r="E21">
-        <v>13.42895379321792</v>
+        <v>13.69001566444761</v>
       </c>
       <c r="F21">
-        <v>32.99986871785692</v>
+        <v>30.57702363503558</v>
       </c>
       <c r="G21">
-        <v>40.71576627280369</v>
+        <v>38.80470662063703</v>
       </c>
       <c r="H21">
-        <v>1.876854137224137</v>
+        <v>1.879022008034344</v>
       </c>
       <c r="I21">
-        <v>2.596173441431973</v>
+        <v>2.549721368317849</v>
       </c>
       <c r="J21">
-        <v>12.671019306053</v>
+        <v>11.09589056968792</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.011904630532381</v>
+        <v>13.775914656495</v>
       </c>
       <c r="M21">
-        <v>15.69700438688008</v>
+        <v>12.60482546047745</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.955864908761651</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.423648688296</v>
       </c>
       <c r="P21">
-        <v>13.22701641054798</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.78338803047229</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.69918289860545</v>
+        <v>17.55458368816537</v>
       </c>
       <c r="C22">
-        <v>10.93387256404445</v>
+        <v>11.88147051698522</v>
       </c>
       <c r="D22">
-        <v>8.297225383574535</v>
+        <v>8.966699500478505</v>
       </c>
       <c r="E22">
-        <v>13.84334508050896</v>
+        <v>14.13445520307578</v>
       </c>
       <c r="F22">
-        <v>33.70763697892015</v>
+        <v>30.87052109968835</v>
       </c>
       <c r="G22">
-        <v>41.64848262508728</v>
+        <v>40.59235802993973</v>
       </c>
       <c r="H22">
-        <v>2.070778730437123</v>
+        <v>2.052613781976775</v>
       </c>
       <c r="I22">
-        <v>2.564628590762803</v>
+        <v>2.601216054590292</v>
       </c>
       <c r="J22">
-        <v>12.79790277435449</v>
+        <v>10.55029512325802</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.193672905131708</v>
+        <v>13.62427520909025</v>
       </c>
       <c r="M22">
-        <v>16.25975839199792</v>
+        <v>12.71129762207932</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.118914437005952</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.89365908903063</v>
       </c>
       <c r="P22">
-        <v>13.11683557611138</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.6347564800571</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36000683387618</v>
+        <v>17.29221743485092</v>
       </c>
       <c r="C23">
-        <v>10.72219858082874</v>
+        <v>11.70169408176351</v>
       </c>
       <c r="D23">
-        <v>8.157215110297175</v>
+        <v>8.767264435348636</v>
       </c>
       <c r="E23">
-        <v>13.62027917802165</v>
+        <v>13.89093728316369</v>
       </c>
       <c r="F23">
-        <v>33.3675652446668</v>
+        <v>30.79778656191911</v>
       </c>
       <c r="G23">
-        <v>41.21640663027723</v>
+        <v>39.53569044213145</v>
       </c>
       <c r="H23">
-        <v>1.968655700035648</v>
+        <v>1.962331295386307</v>
       </c>
       <c r="I23">
-        <v>2.508003349986576</v>
+        <v>2.536686237706067</v>
       </c>
       <c r="J23">
-        <v>12.74312474478718</v>
+        <v>10.94860127292045</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.098446050176658</v>
+        <v>13.74422490079581</v>
       </c>
       <c r="M23">
-        <v>15.96485134950578</v>
+        <v>12.69922118783466</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.035192398577832</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.66048042438141</v>
       </c>
       <c r="P23">
-        <v>13.18210227591256</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.72240485032826</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.03546192008834</v>
+        <v>16.15505033780599</v>
       </c>
       <c r="C24">
-        <v>9.937144415290142</v>
+        <v>10.94319068376037</v>
       </c>
       <c r="D24">
-        <v>7.622123764688701</v>
+        <v>8.066049416921222</v>
       </c>
       <c r="E24">
-        <v>12.75008461545976</v>
+        <v>12.96801858953217</v>
       </c>
       <c r="F24">
-        <v>32.00514981976407</v>
+        <v>30.18572519180998</v>
       </c>
       <c r="G24">
-        <v>39.45910838897675</v>
+        <v>36.36436769656937</v>
       </c>
       <c r="H24">
-        <v>1.572369682891255</v>
+        <v>1.606082952343396</v>
       </c>
       <c r="I24">
-        <v>2.809943276247566</v>
+        <v>2.714504543808014</v>
       </c>
       <c r="J24">
-        <v>12.51898713795684</v>
+        <v>11.94789611483009</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.725553527002297</v>
+        <v>14.06401911670722</v>
       </c>
       <c r="M24">
-        <v>14.79344982214366</v>
+        <v>12.50300962845731</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.698105453634568</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.65891716796314</v>
       </c>
       <c r="P24">
-        <v>13.41994216692425</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.02703181676047</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51006316465887</v>
+        <v>14.70332301406838</v>
       </c>
       <c r="C25">
-        <v>9.033694657299383</v>
+        <v>9.862323525785072</v>
       </c>
       <c r="D25">
-        <v>7.005902913755667</v>
+        <v>7.394440185065357</v>
       </c>
       <c r="E25">
-        <v>11.74660595890704</v>
+        <v>11.95693475438</v>
       </c>
       <c r="F25">
-        <v>30.50881365413138</v>
+        <v>28.9672984772022</v>
       </c>
       <c r="G25">
-        <v>37.5349883772189</v>
+        <v>34.73695599433616</v>
       </c>
       <c r="H25">
-        <v>2.004715638273513</v>
+        <v>1.939870009083084</v>
       </c>
       <c r="I25">
-        <v>3.151781507146667</v>
+        <v>3.007506575470554</v>
       </c>
       <c r="J25">
-        <v>12.28726867074591</v>
+        <v>11.84369936729366</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.302401104611635</v>
+        <v>14.189558515721</v>
       </c>
       <c r="M25">
-        <v>13.42309413025324</v>
+        <v>12.09711485432974</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.295855159255496</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.33284684448616</v>
       </c>
       <c r="P25">
-        <v>13.67975142529643</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.30671499322338</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
